--- a/biology/Botanique/Rhinanthus_alectorolophus/Rhinanthus_alectorolophus.xlsx
+++ b/biology/Botanique/Rhinanthus_alectorolophus/Rhinanthus_alectorolophus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Rhinanthe crête de coq ou Rhinanthe velu (Rhinanthus alectorolophus) est une plante herbacée annuelle de la famille des Orobanchacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante semi-parasite.
 </t>
@@ -542,9 +556,11 @@
           <t>Biotopes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prairies et pelouses, jusqu'à 2 300 m d'altitude, signalée jusqu'à 2 000 m dans le parc du Mercantour[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prairies et pelouses, jusqu'à 2 300 m d'altitude, signalée jusqu'à 2 000 m dans le parc du Mercantour.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Commune surtout en Europe centrale, assez commune en France.
 </t>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhinanthus, du grec ῥίς - rhis, génitif ῥινός - rhinos, nez, mufle ; et ἄνθος - anthos, fleur : allusion à la forme de la corolle. 
 alectorolophus, crête de coq ; du grec ἀλέκτωρ - alektôr, génitif ἀλέκτορος - alektoros, coq ; λόφος - lophos, cou, crête.
@@ -636,7 +656,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Rhinanthus major L.
 Rhinanthus major  Ehrh.
@@ -689,7 +711,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ L. Persici et B. Charpentier, Fleurs du Mercantour, éd. Dromadaire, Parc National du Mercantour,  (ISBN 2-909518-02-7), DL juillet 1992
